--- a/utilities/evaluator_sample.xlsx
+++ b/utilities/evaluator_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RoboCon2022DE\visual-document-testing\utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RoboCon2022DE\rbcn22de-visual-document-testing\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9042962F-36A3-4943-9940-6F69F5FEE11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264CFDE-BCD4-46CB-BCA7-AC922EC0FB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{191883A2-E1B1-4A61-B73D-C185E6E474C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{191883A2-E1B1-4A61-B73D-C185E6E474C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="105">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -73,9 +73,6 @@
     <t>[Documentation]</t>
   </si>
   <si>
-    <t>invoice.pdf</t>
-  </si>
-  <si>
     <t>invoice.html</t>
   </si>
   <si>
@@ -233,16 +230,142 @@
   </si>
   <si>
     <t>Create invoice.pdf from invoice_nologo.html with mask mask_invoice.json and retrieve via webservice</t>
+  </si>
+  <si>
+    <t>invoice_001.pdf</t>
+  </si>
+  <si>
+    <t>invoice_002.pdf</t>
+  </si>
+  <si>
+    <t>invoice_003.pdf</t>
+  </si>
+  <si>
+    <t>invoice_004.pdf</t>
+  </si>
+  <si>
+    <t>invoice_005.pdf</t>
+  </si>
+  <si>
+    <t>invoice_006.pdf</t>
+  </si>
+  <si>
+    <t>invoice_007.pdf</t>
+  </si>
+  <si>
+    <t>invoice_008.pdf</t>
+  </si>
+  <si>
+    <t>invoice_009.pdf</t>
+  </si>
+  <si>
+    <t>invoice_010.pdf</t>
+  </si>
+  <si>
+    <t>invoice_011.pdf</t>
+  </si>
+  <si>
+    <t>invoice_012.pdf</t>
+  </si>
+  <si>
+    <t>invoice_013.pdf</t>
+  </si>
+  <si>
+    <t>invoice_014.pdf</t>
+  </si>
+  <si>
+    <t>invoice_015.pdf</t>
+  </si>
+  <si>
+    <t>invoice_016.pdf</t>
+  </si>
+  <si>
+    <t>invoice_017.pdf</t>
+  </si>
+  <si>
+    <t>invoice_018.pdf</t>
+  </si>
+  <si>
+    <t>invoice_019.pdf</t>
+  </si>
+  <si>
+    <t>invoice_020.pdf</t>
+  </si>
+  <si>
+    <t>invoice_021.pdf</t>
+  </si>
+  <si>
+    <t>invoice_022.pdf</t>
+  </si>
+  <si>
+    <t>invoice_023.pdf</t>
+  </si>
+  <si>
+    <t>invoice_024.pdf</t>
+  </si>
+  <si>
+    <t>invoice_025.pdf</t>
+  </si>
+  <si>
+    <t>invoice_026.pdf</t>
+  </si>
+  <si>
+    <t>invoice_027.pdf</t>
+  </si>
+  <si>
+    <t>invoice_028.pdf</t>
+  </si>
+  <si>
+    <t>invoice_029.pdf</t>
+  </si>
+  <si>
+    <t>invoice_030.pdf</t>
+  </si>
+  <si>
+    <t>invoice_031.pdf</t>
+  </si>
+  <si>
+    <t>invoice_032.pdf</t>
+  </si>
+  <si>
+    <t>invoice_033.pdf</t>
+  </si>
+  <si>
+    <t>invoice_034.pdf</t>
+  </si>
+  <si>
+    <t>invoice_035.pdf</t>
+  </si>
+  <si>
+    <t>invoice_036.pdf</t>
+  </si>
+  <si>
+    <t>invoice_037.pdf</t>
+  </si>
+  <si>
+    <t>invoice_038.pdf</t>
+  </si>
+  <si>
+    <t>invoice_039.pdf</t>
+  </si>
+  <si>
+    <t>invoice_040.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -587,7 +710,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,1285 +769,1286 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
         <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
         <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
         <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
         <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
         <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
         <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
         <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
         <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
         <v>8</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
         <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
         <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" t="s">
         <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" t="s">
         <v>8</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
